--- a/REGULAR/RE-ENCODE/TOLENTINO, FE.xlsx
+++ b/REGULAR/RE-ENCODE/TOLENTINO, FE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\PICNIC GROVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33138BF2-1BC6-4768-8820-2DAD148E9B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -297,12 +296,21 @@
   </si>
   <si>
     <t>12/9,16/2022</t>
+  </si>
+  <si>
+    <t>TICC</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>4/19,20/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -994,25 +1002,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1319,34 +1327,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A76" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1375,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1394,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1406,9 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
+      <c r="F4" s="54" t="s">
+        <v>85</v>
+      </c>
       <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
@@ -1407,7 +1417,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -1422,7 +1432,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -1435,7 +1445,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="52" t="s">
@@ -1452,7 +1462,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1496,7 +1506,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>157.929</v>
+        <v>165.429</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1506,12 +1516,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>131.5</v>
+        <v>137</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>44</v>
       </c>
@@ -1533,7 +1543,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -1553,7 +1563,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>43132</v>
       </c>
@@ -1579,7 +1589,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>43160</v>
       </c>
@@ -1599,7 +1609,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>43191</v>
       </c>
@@ -1619,7 +1629,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>43221</v>
       </c>
@@ -1639,7 +1649,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -1659,7 +1669,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>43282</v>
       </c>
@@ -1683,7 +1693,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>43313</v>
       </c>
@@ -1703,7 +1713,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>43344</v>
       </c>
@@ -1729,7 +1739,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="21" t="s">
         <v>48</v>
@@ -1748,7 +1758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="21" t="s">
         <v>45</v>
@@ -1767,7 +1777,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>43374</v>
       </c>
@@ -1793,7 +1803,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="21" t="s">
         <v>51</v>
@@ -1812,7 +1822,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="21" t="s">
         <v>46</v>
@@ -1829,7 +1839,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>43405</v>
       </c>
@@ -1849,7 +1859,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>43435</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
         <v>54</v>
       </c>
@@ -1891,7 +1901,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>43466</v>
       </c>
@@ -1911,7 +1921,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>43497</v>
       </c>
@@ -1931,7 +1941,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>43525</v>
       </c>
@@ -1951,7 +1961,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>43556</v>
       </c>
@@ -1971,7 +1981,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>43586</v>
       </c>
@@ -1991,7 +2001,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>43617</v>
       </c>
@@ -2015,7 +2025,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="21" t="s">
         <v>55</v>
@@ -2034,7 +2044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>43647</v>
       </c>
@@ -2058,7 +2068,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="21" t="s">
         <v>55</v>
@@ -2077,7 +2087,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>43678</v>
       </c>
@@ -2103,7 +2113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>43709</v>
       </c>
@@ -2123,7 +2133,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>43739</v>
       </c>
@@ -2145,7 +2155,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>43770</v>
       </c>
@@ -2169,7 +2179,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="21" t="s">
         <v>46</v>
@@ -2186,7 +2196,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>43800</v>
       </c>
@@ -2206,7 +2216,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
         <v>62</v>
       </c>
@@ -2224,7 +2234,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>43831</v>
       </c>
@@ -2244,7 +2254,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>43862</v>
       </c>
@@ -2268,7 +2278,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>43891</v>
       </c>
@@ -2288,7 +2298,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>43922</v>
       </c>
@@ -2308,7 +2318,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>43952</v>
       </c>
@@ -2328,7 +2338,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>43983</v>
       </c>
@@ -2348,7 +2358,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>44013</v>
       </c>
@@ -2372,7 +2382,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>44044</v>
       </c>
@@ -2392,7 +2402,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>44075</v>
       </c>
@@ -2418,7 +2428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>44105</v>
       </c>
@@ -2438,7 +2448,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>44136</v>
       </c>
@@ -2458,7 +2468,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>44166</v>
       </c>
@@ -2482,7 +2492,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="21" t="s">
         <v>46</v>
@@ -2502,7 +2512,7 @@
         <v>44187</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="21" t="s">
         <v>65</v>
@@ -2522,7 +2532,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
         <v>66</v>
       </c>
@@ -2540,7 +2550,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>44197</v>
       </c>
@@ -2560,7 +2570,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>44228</v>
       </c>
@@ -2580,7 +2590,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>44256</v>
       </c>
@@ -2606,7 +2616,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>44287</v>
       </c>
@@ -2626,7 +2636,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>44317</v>
       </c>
@@ -2652,7 +2662,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="B64" s="21" t="s">
         <v>67</v>
@@ -2671,7 +2681,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>44348</v>
       </c>
@@ -2697,7 +2707,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
       <c r="B66" s="21" t="s">
         <v>55</v>
@@ -2716,7 +2726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
       <c r="B67" s="21" t="s">
         <v>46</v>
@@ -2733,7 +2743,7 @@
         <v>44416</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>44378</v>
       </c>
@@ -2753,7 +2763,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>44409</v>
       </c>
@@ -2773,7 +2783,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>44440</v>
       </c>
@@ -2793,7 +2803,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>44470</v>
       </c>
@@ -2819,7 +2829,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>44501</v>
       </c>
@@ -2843,7 +2853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
       <c r="B73" s="21" t="s">
         <v>57</v>
@@ -2862,7 +2872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>44531</v>
       </c>
@@ -2882,7 +2892,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
         <v>79</v>
       </c>
@@ -2900,7 +2910,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>44562</v>
       </c>
@@ -2920,7 +2930,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>44593</v>
       </c>
@@ -2940,7 +2950,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>44621</v>
       </c>
@@ -2960,7 +2970,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="42">
         <v>44652</v>
       </c>
@@ -2980,7 +2990,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="42">
         <v>44682</v>
       </c>
@@ -3000,7 +3010,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42">
         <v>44713</v>
       </c>
@@ -3026,7 +3036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
       <c r="B82" s="21" t="s">
         <v>46</v>
@@ -3043,7 +3053,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="42">
         <v>44743</v>
       </c>
@@ -3063,7 +3073,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="42">
         <v>44774</v>
       </c>
@@ -3083,7 +3093,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="42">
         <v>44805</v>
       </c>
@@ -3103,7 +3113,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="42">
         <v>44835</v>
       </c>
@@ -3123,20 +3133,22 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="42">
         <v>44866</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="14"/>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="41"/>
       <c r="E87" s="10"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="41"/>
       <c r="I87" s="10"/>
@@ -3145,7 +3157,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="42"/>
       <c r="B88" s="21" t="s">
         <v>57</v>
@@ -3167,7 +3179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="21" t="s">
         <v>58</v>
@@ -3189,24 +3201,30 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="42"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="42">
+        <v>44896</v>
+      </c>
       <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="41"/>
       <c r="E90" s="10"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="41"/>
       <c r="I90" s="10"/>
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="42"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="50" t="s">
+        <v>86</v>
+      </c>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
       <c r="D91" s="41"/>
@@ -3221,71 +3239,93 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="42">
+        <v>44927</v>
+      </c>
       <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
+      <c r="C92" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="41"/>
       <c r="E92" s="10"/>
       <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="41"/>
       <c r="I92" s="10"/>
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="42"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="42">
+        <v>44958</v>
+      </c>
       <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
+      <c r="C93" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="41"/>
       <c r="E93" s="10"/>
       <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="41"/>
       <c r="I93" s="10"/>
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="42"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="42">
+        <v>44986</v>
+      </c>
       <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
+      <c r="C94" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="41"/>
       <c r="E94" s="10"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="41"/>
       <c r="I94" s="10"/>
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="42"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="14"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="42">
+        <v>45017</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="41"/>
       <c r="E95" s="10"/>
       <c r="F95" s="21"/>
-      <c r="G95" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="41"/>
+      <c r="G95" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H95" s="41">
+        <v>2</v>
+      </c>
       <c r="I95" s="10"/>
       <c r="J95" s="12"/>
-      <c r="K95" s="21"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K95" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -3301,7 +3341,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3317,7 +3357,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3333,7 +3373,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3349,7 +3389,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3365,7 +3405,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="42"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3381,7 +3421,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="42"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3397,7 +3437,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="42"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3413,7 +3453,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="42"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3429,7 +3469,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="42"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3445,7 +3485,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3461,7 +3501,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3477,7 +3517,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3493,7 +3533,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3509,7 +3549,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3525,7 +3565,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3541,7 +3581,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3557,7 +3597,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3573,7 +3613,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3589,7 +3629,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3605,7 +3645,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="42"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -3621,7 +3661,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="42"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -3637,7 +3677,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="42"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -3653,7 +3693,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="42"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -3669,7 +3709,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -3685,7 +3725,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -3701,7 +3741,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -3717,7 +3757,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -3733,7 +3773,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -3749,7 +3789,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -3765,7 +3805,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -3781,7 +3821,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -3797,7 +3837,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -3813,7 +3853,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -3829,7 +3869,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -3845,7 +3885,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="42"/>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -3861,7 +3901,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="42"/>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -3877,7 +3917,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="42"/>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -3893,7 +3933,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="42"/>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -3909,7 +3949,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="42"/>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -3925,7 +3965,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="21"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="42"/>
       <c r="B136" s="21"/>
       <c r="C136" s="14"/>
@@ -3941,7 +3981,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="21"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="42"/>
       <c r="B137" s="21"/>
       <c r="C137" s="14"/>
@@ -3957,7 +3997,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="21"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="42"/>
       <c r="B138" s="21"/>
       <c r="C138" s="14"/>
@@ -3973,7 +4013,7 @@
       <c r="J138" s="12"/>
       <c r="K138" s="21"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="42"/>
       <c r="B139" s="21"/>
       <c r="C139" s="14"/>
@@ -3989,7 +4029,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="21"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="42"/>
       <c r="B140" s="21"/>
       <c r="C140" s="14"/>
@@ -4005,7 +4045,7 @@
       <c r="J140" s="12"/>
       <c r="K140" s="21"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="42"/>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -4021,7 +4061,7 @@
       <c r="J141" s="12"/>
       <c r="K141" s="21"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="16"/>
       <c r="C142" s="44"/>
@@ -4052,10 +4092,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4078,28 +4118,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -4112,7 +4152,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -4141,7 +4181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>113.429</v>
       </c>
@@ -4165,17 +4205,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -4196,7 +4236,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -4223,7 +4263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -4249,7 +4289,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -4275,7 +4315,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -4301,7 +4341,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -4327,7 +4367,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -4353,7 +4393,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -4379,7 +4419,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -4405,7 +4445,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -4425,7 +4465,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -4445,7 +4485,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -4465,7 +4505,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -4486,7 +4526,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -4507,7 +4547,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -4528,7 +4568,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -4549,7 +4589,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -4570,7 +4610,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -4591,7 +4631,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -4612,7 +4652,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -4633,7 +4673,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -4654,7 +4694,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -4675,7 +4715,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -4696,7 +4736,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -4717,7 +4757,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -4738,7 +4778,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -4759,7 +4799,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -4780,7 +4820,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -4801,7 +4841,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -4822,7 +4862,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -4843,7 +4883,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -4864,7 +4904,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -4885,7 +4925,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -4894,7 +4934,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -4903,7 +4943,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -4912,7 +4952,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -4921,7 +4961,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -4930,7 +4970,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -4939,7 +4979,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -4948,7 +4988,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -4957,7 +4997,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -4966,7 +5006,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -4975,7 +5015,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -4984,7 +5024,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -4993,7 +5033,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -5002,7 +5042,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -5011,7 +5051,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -5020,7 +5060,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -5029,7 +5069,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -5038,7 +5078,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -5047,7 +5087,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -5056,7 +5096,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -5065,7 +5105,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -5074,7 +5114,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -5083,7 +5123,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -5092,7 +5132,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -5101,7 +5141,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -5110,7 +5150,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -5119,7 +5159,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -5128,7 +5168,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -5137,7 +5177,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -5146,7 +5186,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
